--- a/data/level.xlsx
+++ b/data/level.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\lifujisuanqi\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\GuildleveExperienceCalculation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41110E9-F94D-4BEE-8027-9F8B8A3CE526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C706AF-7A4B-4F93-AC1B-6D5BDC72CA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9030" yWindow="3660" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1050" yWindow="3615" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -39,6 +35,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -75,9 +74,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -366,14 +366,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="33.75" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="2">
         <v>300</v>
       </c>
     </row>
@@ -381,7 +382,7 @@
       <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>450</v>
       </c>
     </row>
@@ -389,7 +390,7 @@
       <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>630</v>
       </c>
     </row>
@@ -397,7 +398,7 @@
       <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>970</v>
       </c>
     </row>
@@ -405,7 +406,7 @@
       <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>1440</v>
       </c>
     </row>
@@ -413,7 +414,7 @@
       <c r="A6" s="1">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>1940</v>
       </c>
     </row>
@@ -421,7 +422,7 @@
       <c r="A7" s="1">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>3000</v>
       </c>
     </row>
@@ -429,7 +430,7 @@
       <c r="A8" s="1">
         <v>8</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>3920</v>
       </c>
     </row>
@@ -437,7 +438,7 @@
       <c r="A9" s="1">
         <v>9</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>4970</v>
       </c>
     </row>
@@ -445,7 +446,7 @@
       <c r="A10" s="1">
         <v>10</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>5900</v>
       </c>
     </row>
@@ -453,7 +454,7 @@
       <c r="A11" s="1">
         <v>11</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>7430</v>
       </c>
     </row>
@@ -461,7 +462,7 @@
       <c r="A12" s="1">
         <v>12</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>8620</v>
       </c>
     </row>
@@ -469,7 +470,7 @@
       <c r="A13" s="1">
         <v>13</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>10200</v>
       </c>
     </row>
@@ -477,7 +478,7 @@
       <c r="A14" s="1">
         <v>14</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>11300</v>
       </c>
     </row>
@@ -485,7 +486,7 @@
       <c r="A15" s="1">
         <v>15</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>13100</v>
       </c>
     </row>
@@ -493,7 +494,7 @@
       <c r="A16" s="1">
         <v>16</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>15200</v>
       </c>
     </row>
@@ -501,7 +502,7 @@
       <c r="A17" s="1">
         <v>17</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>17400</v>
       </c>
     </row>
@@ -509,7 +510,7 @@
       <c r="A18" s="1">
         <v>18</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>19600</v>
       </c>
     </row>
@@ -517,7 +518,7 @@
       <c r="A19" s="1">
         <v>19</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>21900</v>
       </c>
     </row>
@@ -525,7 +526,7 @@
       <c r="A20" s="1">
         <v>20</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>24300</v>
       </c>
     </row>
@@ -533,7 +534,7 @@
       <c r="A21" s="1">
         <v>21</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>27400</v>
       </c>
     </row>
@@ -541,7 +542,7 @@
       <c r="A22" s="1">
         <v>22</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>30600</v>
       </c>
     </row>
@@ -549,7 +550,7 @@
       <c r="A23" s="1">
         <v>23</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>33900</v>
       </c>
     </row>
@@ -557,7 +558,7 @@
       <c r="A24" s="1">
         <v>24</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>37300</v>
       </c>
     </row>
@@ -565,7 +566,7 @@
       <c r="A25" s="1">
         <v>25</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>40800</v>
       </c>
     </row>
@@ -573,7 +574,7 @@
       <c r="A26" s="1">
         <v>26</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>49200</v>
       </c>
     </row>
@@ -581,7 +582,7 @@
       <c r="A27" s="1">
         <v>27</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <v>54600</v>
       </c>
     </row>
@@ -589,7 +590,7 @@
       <c r="A28" s="1">
         <v>28</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="2">
         <v>61900</v>
       </c>
     </row>
@@ -597,7 +598,7 @@
       <c r="A29" s="1">
         <v>29</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="2">
         <v>65600</v>
       </c>
     </row>
@@ -605,7 +606,7 @@
       <c r="A30" s="1">
         <v>30</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="2">
         <v>68400</v>
       </c>
     </row>
@@ -613,7 +614,7 @@
       <c r="A31" s="1">
         <v>31</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="2">
         <v>74000</v>
       </c>
     </row>
@@ -621,7 +622,7 @@
       <c r="A32" s="1">
         <v>32</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="2">
         <v>82700</v>
       </c>
     </row>
@@ -629,7 +630,7 @@
       <c r="A33" s="1">
         <v>33</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="2">
         <v>88700</v>
       </c>
     </row>
@@ -637,7 +638,7 @@
       <c r="A34" s="1">
         <v>34</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="2">
         <v>95000</v>
       </c>
     </row>
@@ -645,7 +646,7 @@
       <c r="A35" s="1">
         <v>35</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="2">
         <v>102000</v>
       </c>
     </row>
@@ -653,7 +654,7 @@
       <c r="A36" s="1">
         <v>36</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="2">
         <v>113000</v>
       </c>
     </row>
@@ -661,7 +662,7 @@
       <c r="A37" s="1">
         <v>37</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="2">
         <v>121000</v>
       </c>
     </row>
@@ -669,7 +670,7 @@
       <c r="A38" s="1">
         <v>38</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="2">
         <v>133000</v>
       </c>
     </row>
@@ -677,7 +678,7 @@
       <c r="A39" s="1">
         <v>39</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="2">
         <v>142000</v>
       </c>
     </row>
@@ -685,7 +686,7 @@
       <c r="A40" s="1">
         <v>40</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="2">
         <v>155000</v>
       </c>
     </row>
@@ -693,7 +694,7 @@
       <c r="A41" s="1">
         <v>41</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="2">
         <v>163000</v>
       </c>
     </row>
@@ -701,7 +702,7 @@
       <c r="A42" s="1">
         <v>42</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="2">
         <v>171000</v>
       </c>
     </row>
@@ -709,7 +710,7 @@
       <c r="A43" s="1">
         <v>43</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="2">
         <v>179000</v>
       </c>
     </row>
@@ -717,7 +718,7 @@
       <c r="A44" s="1">
         <v>44</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="2">
         <v>187000</v>
       </c>
     </row>
@@ -725,7 +726,7 @@
       <c r="A45" s="1">
         <v>45</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="2">
         <v>195000</v>
       </c>
     </row>
@@ -733,7 +734,7 @@
       <c r="A46" s="1">
         <v>46</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="2">
         <v>214000</v>
       </c>
     </row>
@@ -741,7 +742,7 @@
       <c r="A47" s="1">
         <v>47</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="2">
         <v>229000</v>
       </c>
     </row>
@@ -749,7 +750,7 @@
       <c r="A48" s="1">
         <v>48</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="2">
         <v>244000</v>
       </c>
     </row>
@@ -757,7 +758,7 @@
       <c r="A49" s="1">
         <v>49</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="2">
         <v>259000</v>
       </c>
     </row>
@@ -765,7 +766,7 @@
       <c r="A50" s="1">
         <v>50</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="2">
         <v>421000</v>
       </c>
     </row>
@@ -773,7 +774,7 @@
       <c r="A51" s="1">
         <v>51</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="2">
         <v>500000</v>
       </c>
     </row>
@@ -781,7 +782,7 @@
       <c r="A52" s="1">
         <v>52</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="2">
         <v>580000</v>
       </c>
     </row>
@@ -789,7 +790,7 @@
       <c r="A53" s="1">
         <v>53</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="2">
         <v>663000</v>
       </c>
     </row>
@@ -797,7 +798,7 @@
       <c r="A54" s="1">
         <v>54</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="2">
         <v>749000</v>
       </c>
     </row>
@@ -805,7 +806,7 @@
       <c r="A55" s="1">
         <v>55</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="2">
         <v>837000</v>
       </c>
     </row>
@@ -813,7 +814,7 @@
       <c r="A56" s="1">
         <v>56</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="2">
         <v>927000</v>
       </c>
     </row>
@@ -821,7 +822,7 @@
       <c r="A57" s="1">
         <v>57</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="2">
         <v>1019000</v>
       </c>
     </row>
@@ -829,7 +830,7 @@
       <c r="A58" s="1">
         <v>58</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="2">
         <v>1114000</v>
       </c>
     </row>
@@ -837,7 +838,7 @@
       <c r="A59" s="1">
         <v>59</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="2">
         <v>1211000</v>
       </c>
     </row>
@@ -845,7 +846,7 @@
       <c r="A60" s="1">
         <v>60</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="2">
         <v>1387000</v>
       </c>
     </row>
@@ -853,7 +854,7 @@
       <c r="A61" s="1">
         <v>61</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="2">
         <v>1456000</v>
       </c>
     </row>
@@ -861,7 +862,7 @@
       <c r="A62" s="1">
         <v>62</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="2">
         <v>1534000</v>
       </c>
     </row>
@@ -869,7 +870,7 @@
       <c r="A63" s="1">
         <v>63</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="2">
         <v>1621000</v>
       </c>
     </row>
@@ -877,7 +878,7 @@
       <c r="A64" s="1">
         <v>64</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="2">
         <v>1720000</v>
       </c>
     </row>
@@ -885,7 +886,7 @@
       <c r="A65" s="1">
         <v>65</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="2">
         <v>1834000</v>
       </c>
     </row>
@@ -893,7 +894,7 @@
       <c r="A66" s="1">
         <v>66</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="2">
         <v>1968000</v>
       </c>
     </row>
@@ -901,7 +902,7 @@
       <c r="A67" s="1">
         <v>67</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="2">
         <v>2126000</v>
       </c>
     </row>
@@ -909,7 +910,7 @@
       <c r="A68" s="1">
         <v>68</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="2">
         <v>2317000</v>
       </c>
     </row>
@@ -917,7 +918,7 @@
       <c r="A69" s="1">
         <v>69</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="2">
         <v>2550000</v>
       </c>
     </row>
@@ -925,7 +926,7 @@
       <c r="A70" s="1">
         <v>70</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="2">
         <v>2923000</v>
       </c>
     </row>
@@ -933,7 +934,7 @@
       <c r="A71" s="1">
         <v>71</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="2">
         <v>3018000</v>
       </c>
     </row>
@@ -941,7 +942,7 @@
       <c r="A72" s="1">
         <v>72</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="2">
         <v>3153000</v>
       </c>
     </row>
@@ -949,7 +950,7 @@
       <c r="A73" s="1">
         <v>73</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="2">
         <v>3324000</v>
       </c>
     </row>
@@ -957,7 +958,7 @@
       <c r="A74" s="1">
         <v>74</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="2">
         <v>3532000</v>
       </c>
     </row>
@@ -965,7 +966,7 @@
       <c r="A75" s="1">
         <v>75</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="2">
         <v>3770600</v>
       </c>
     </row>
@@ -973,7 +974,7 @@
       <c r="A76" s="1">
         <v>76</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="2">
         <v>4066000</v>
       </c>
     </row>
@@ -981,7 +982,7 @@
       <c r="A77" s="1">
         <v>77</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="2">
         <v>4377000</v>
       </c>
     </row>
@@ -989,7 +990,7 @@
       <c r="A78" s="1">
         <v>78</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="2">
         <v>4777000</v>
       </c>
     </row>
@@ -997,7 +998,7 @@
       <c r="A79" s="1">
         <v>79</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="2">
         <v>5256000</v>
       </c>
     </row>
@@ -1005,7 +1006,7 @@
       <c r="A80" s="1">
         <v>80</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="2">
         <v>5992000</v>
       </c>
     </row>
@@ -1013,7 +1014,7 @@
       <c r="A81" s="1">
         <v>81</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="2">
         <v>6171000</v>
       </c>
     </row>
@@ -1021,7 +1022,7 @@
       <c r="A82" s="1">
         <v>82</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="2">
         <v>6942000</v>
       </c>
     </row>
@@ -1029,7 +1030,7 @@
       <c r="A83" s="1">
         <v>83</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="2">
         <v>7205000</v>
       </c>
     </row>
@@ -1037,7 +1038,7 @@
       <c r="A84" s="1">
         <v>84</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="2">
         <v>7948000</v>
       </c>
     </row>
@@ -1045,7 +1046,7 @@
       <c r="A85" s="1">
         <v>85</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="2">
         <v>8287000</v>
       </c>
     </row>
@@ -1053,7 +1054,7 @@
       <c r="A86" s="1">
         <v>86</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="2">
         <v>9231000</v>
       </c>
     </row>
@@ -1061,7 +1062,7 @@
       <c r="A87" s="1">
         <v>87</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="2">
         <v>9529000</v>
       </c>
     </row>
@@ -1069,7 +1070,7 @@
       <c r="A88" s="1">
         <v>88</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="2">
         <v>10459000</v>
       </c>
     </row>
@@ -1077,7 +1078,7 @@
       <c r="A89" s="1">
         <v>89</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="2">
         <v>10838000</v>
       </c>
     </row>
@@ -1085,8 +1086,8 @@
       <c r="A90" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>1</v>
+      <c r="B90" s="2">
+        <v>9.9999999999999905E+26</v>
       </c>
     </row>
   </sheetData>
